--- a/students.xlsx
+++ b/students.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisjo/Documents/2018/2nd-semester/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisjo/Documents/bridx3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,112 +59,112 @@
     <t>김경환</t>
   </si>
   <si>
-    <t>20130531</t>
-  </si>
-  <si>
     <t>경제학전공</t>
   </si>
   <si>
     <t>강태영</t>
   </si>
   <si>
-    <t>20140382</t>
-  </si>
-  <si>
     <t>사회학전공</t>
   </si>
   <si>
     <t>양소희</t>
   </si>
   <si>
-    <t>20141111</t>
-  </si>
-  <si>
     <t>국제한국학전공</t>
   </si>
   <si>
     <t>전형준</t>
   </si>
   <si>
-    <t>20141119</t>
-  </si>
-  <si>
     <t>신재범</t>
   </si>
   <si>
-    <t>20150205</t>
-  </si>
-  <si>
     <t>미국문화전공</t>
   </si>
   <si>
     <t>김요욱</t>
   </si>
   <si>
-    <t>20151121</t>
-  </si>
-  <si>
     <t>장인영</t>
   </si>
   <si>
-    <t>20151134</t>
-  </si>
-  <si>
     <t>박지현</t>
   </si>
   <si>
-    <t>20151875</t>
-  </si>
-  <si>
     <t>배기현</t>
   </si>
   <si>
-    <t>20161163</t>
-  </si>
-  <si>
     <t>이아현</t>
   </si>
   <si>
-    <t>20161165</t>
-  </si>
-  <si>
     <t>박강훈</t>
   </si>
   <si>
-    <t>20161994</t>
-  </si>
-  <si>
     <t>구유진</t>
   </si>
   <si>
-    <t>20171195</t>
-  </si>
-  <si>
     <t>손지일</t>
   </si>
   <si>
-    <t>20171206</t>
-  </si>
-  <si>
     <t>유하은</t>
   </si>
   <si>
-    <t>20171211</t>
-  </si>
-  <si>
     <t>LOGOMASINIEMMA</t>
   </si>
   <si>
-    <t>G20180275</t>
-  </si>
-  <si>
     <t>학부</t>
   </si>
   <si>
     <t>DAVIS,BRYCE</t>
   </si>
   <si>
-    <t>G20180481</t>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000016</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -610,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -662,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -688,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -714,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -740,13 +740,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -766,13 +766,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -792,13 +792,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -818,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -844,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -870,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -896,13 +896,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -922,13 +922,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -948,13 +948,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisjo/Documents/bridx3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisjo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,67 +56,67 @@
     <t>Result</t>
   </si>
   <si>
-    <t>김경환</t>
-  </si>
-  <si>
     <t>경제학전공</t>
   </si>
   <si>
-    <t>강태영</t>
-  </si>
-  <si>
     <t>사회학전공</t>
   </si>
   <si>
-    <t>양소희</t>
-  </si>
-  <si>
     <t>국제한국학전공</t>
   </si>
   <si>
-    <t>전형준</t>
-  </si>
-  <si>
-    <t>신재범</t>
-  </si>
-  <si>
     <t>미국문화전공</t>
   </si>
   <si>
-    <t>김요욱</t>
-  </si>
-  <si>
-    <t>장인영</t>
-  </si>
-  <si>
-    <t>박지현</t>
-  </si>
-  <si>
-    <t>배기현</t>
-  </si>
-  <si>
-    <t>이아현</t>
-  </si>
-  <si>
-    <t>박강훈</t>
-  </si>
-  <si>
-    <t>구유진</t>
-  </si>
-  <si>
-    <t>손지일</t>
-  </si>
-  <si>
-    <t>유하은</t>
-  </si>
-  <si>
-    <t>LOGOMASINIEMMA</t>
-  </si>
-  <si>
     <t>학부</t>
   </si>
   <si>
-    <t>DAVIS,BRYCE</t>
+    <t>경환</t>
+  </si>
+  <si>
+    <t>태영</t>
+  </si>
+  <si>
+    <t>소희</t>
+  </si>
+  <si>
+    <t>형준</t>
+  </si>
+  <si>
+    <t>재범</t>
+  </si>
+  <si>
+    <t>요욱</t>
+  </si>
+  <si>
+    <t>인영</t>
+  </si>
+  <si>
+    <t>지현</t>
+  </si>
+  <si>
+    <t>기현</t>
+  </si>
+  <si>
+    <t>아현</t>
+  </si>
+  <si>
+    <t>강훈</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>지일</t>
+  </si>
+  <si>
+    <t>하은</t>
+  </si>
+  <si>
+    <t>EMMA</t>
+  </si>
+  <si>
+    <t>BRYCE</t>
   </si>
   <si>
     <t>00000001</t>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -610,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -662,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -688,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -714,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -740,13 +740,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -766,13 +766,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -792,13 +792,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -818,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -844,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -870,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -896,13 +896,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -922,13 +922,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -943,18 +943,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
